--- a/Data/Processed/Angiosperms/missing_powo_ipni/Urticaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Urticaceae.xlsx
@@ -4502,7 +4502,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -16470,7 +16470,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -19231,7 +19231,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -19549,7 +19549,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 647. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 647. 1913</t>
         </is>
       </c>
       <c r="J343" t="b">
@@ -19617,7 +19617,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 647. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 647. 1913</t>
         </is>
       </c>
       <c r="J344" t="b">
@@ -19695,7 +19695,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -19773,7 +19773,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -19851,7 +19851,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denkschr. Königl.-Baier. Bot. Ges. Regensburg 2: 29. 1822 </t>
+          <t>Denkschr. Königl.-Baier. Bot. Ges. Regensburg 2: 29. 1822</t>
         </is>
       </c>
       <c r="J347" t="b">
